--- a/biology/Histoire de la zoologie et de la botanique/Julius_Riemer/Julius_Riemer.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Julius_Riemer/Julius_Riemer.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Julius Riemer. (* 4 avril 1880 à Berlin ; † 17 novembre 1958 à Wittemberg) est un fabricant allemand, collectionneur d'histoire naturelle et d'ethnologie et le fondateur d'un musée.
 </t>
@@ -511,7 +523,9 @@
           <t>Vie de fabricant et de collectionneur</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Julius Riemer a grandi comme premier enfant d'une famille de fabricants berlinois. En tant que fils aîné, il était destiné à être le principal héritier de la fabrique.
 Toute sa vie, il s'est toutefois principalement intéressé à la science, qu'il n'a cependant pas pu pratiquer en raison de contraintes temporelles et familiales.
@@ -549,14 +563,16 @@
           <t>Spéléologie et contact avec Benno Wolf</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Riemer s'est engagé dans au moins 20 associations et sociétés scientifiques, entre autres dans la Société berlinoise d'anthropologie, d'ethnologie et de préhistoire qui existe encore aujourd'hui.
 Il s'intéressait particulièrement à la spéléologie.
 Julius Riemer entretenait des relations amicales avec le plus célèbre spéléologue allemand, Benno Wolf. Wolf était un chrétien baptisé, mais avait des racines juives. Durant la période de plus en plus difficile pour Benno Wolf période nazie, Riemer était un soutien important pour lui - il aidait Wolf autant qu'il le pouvait, y compris par des aides financières. Le legs de Benno Wolf, dans lequel il lègue son matériel scientifique à Julius Riemer, date du 5 septembre 1936 (KNOLLE 1990). À la demande de Wolf, Riemer prit également en charge la rédaction de la revue de la fédération principale de spéléologie à partir de 1937 ; seul le dernier numéro double de la revue est dû à la plume rédactionnelle de Florian Heller. Pendant un certain temps, Riemer fut également le président en exercice de l'association principale. Lorsque la pression des nazis se fit plus forte, Riemer se vit contraint, le 15 août 1939, de remplacer le Ahnenerbe-Reichsgeschäftsführer, condamné à mort par la suite lors du procès des médecins de Nuremberg. Wolfram Sievers de sa coopération afin d'apaiser les soupçons.
 Le 11 mai 1941, le Reichsbund für Karst- und Höhlenforschung fut fondé à Salzbourg ; la Gleichschaltung de la spéléologie allemande et autrichienne était ainsi réalisée. Riemer se fit élire au conseil d'administration et occupa le poste de trésorier et de rédacteur - avec Florian Heller. L'ancienne Hauptverband continua d'exister.
-En octobre 1942, Riemer renonça à ses fonctions "pour des raisons de santé" - en réalité, les raisons étaient différentes. Car le 6 juillet 1942, Benno Wolf - 71 ans - avait été arrêté par la Gestapo et transféré de Berlin au ghetto de Theresienstadt par le 17e convoi pour personnes âgées. déportation. Julius Riemer ne pouvait plus guère l'aider et ne savait pas non plus ce qui était arrivé à Wolf. Il écrivit en 1947 que Wolf avait alors "disparu sans laisser de traces"[1]. Les détails de la déportation et de la mort de Wolf ne purent être éclaircis qu'après l'effondrement du régime nazi.
-Le 25 avril 1947, Riemer légua par procuration à la Naturhistorische Gesellschaft Nürnberg, Abteilung für Karstforschung, les documents de la succession de Benno Wolf qui se trouvaient à Pottenstein[1].
+En octobre 1942, Riemer renonça à ses fonctions "pour des raisons de santé" - en réalité, les raisons étaient différentes. Car le 6 juillet 1942, Benno Wolf - 71 ans - avait été arrêté par la Gestapo et transféré de Berlin au ghetto de Theresienstadt par le 17e convoi pour personnes âgées. déportation. Julius Riemer ne pouvait plus guère l'aider et ne savait pas non plus ce qui était arrivé à Wolf. Il écrivit en 1947 que Wolf avait alors "disparu sans laisser de traces". Les détails de la déportation et de la mort de Wolf ne purent être éclaircis qu'après l'effondrement du régime nazi.
+Le 25 avril 1947, Riemer légua par procuration à la Naturhistorische Gesellschaft Nürnberg, Abteilung für Karstforschung, les documents de la succession de Benno Wolf qui se trouvaient à Pottenstein.
 </t>
         </is>
       </c>
@@ -587,20 +603,130 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Développement du musée jusqu'à sa fermeture en 2011
-Après 1945, Julius Riemer reçut du pasteur provincial et biologiste Otto Kleinschmidt l'offre d'aménager un musée d'histoire naturelle et d'ethnologie dans le château de Wittenberg en tant qu'extension du foyer de recherche de l'Église qui s'y trouvait. Julius Riemer entretenait déjà depuis des décennies des contacts privés et professionnels avec Wittenberg et ses environs. En 1947, le déménagement de la collection était terminé. En 1949, les premières salles d'exposition furent inaugurées[2], 1954 la création du Musée d'histoire naturelle et d'ethnologie à partir de sa collection privée, qu'il a dirigé jusqu'à sa mort en 1958. Sa femme Charlotte Riemer, qui avait déjà soutenu son mari dans la création du musée en tant que muséologue de formation, poursuivit le musée et l'agrandit considérablement. Dans le cadre de la concentration des collections ethnologiques sur quatre sites prévue par la RDA, de nombreux prêts et donations d'autres musées sont parvenus au musée de Wittenberg qui, en tant que nouvelle fondation, complétait les trois sites traditionnels de musées ethnologiques de Leipzig, Dresde et Herrnhut.
+          <t>Développement du musée jusqu'à sa fermeture en 2011</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Après 1945, Julius Riemer reçut du pasteur provincial et biologiste Otto Kleinschmidt l'offre d'aménager un musée d'histoire naturelle et d'ethnologie dans le château de Wittenberg en tant qu'extension du foyer de recherche de l'Église qui s'y trouvait. Julius Riemer entretenait déjà depuis des décennies des contacts privés et professionnels avec Wittenberg et ses environs. En 1947, le déménagement de la collection était terminé. En 1949, les premières salles d'exposition furent inaugurées, 1954 la création du Musée d'histoire naturelle et d'ethnologie à partir de sa collection privée, qu'il a dirigé jusqu'à sa mort en 1958. Sa femme Charlotte Riemer, qui avait déjà soutenu son mari dans la création du musée en tant que muséologue de formation, poursuivit le musée et l'agrandit considérablement. Dans le cadre de la concentration des collections ethnologiques sur quatre sites prévue par la RDA, de nombreux prêts et donations d'autres musées sont parvenus au musée de Wittenberg qui, en tant que nouvelle fondation, complétait les trois sites traditionnels de musées ethnologiques de Leipzig, Dresde et Herrnhut.
 Le musée occupait deux étages du château de Wittenberg. L'étage inférieur abritait l'exposition d'histoire naturelle avec les thèmes de l'évolution, de la systématique zoologique et de la physiologie, ainsi qu'une salle consacrée aux primates et aux ongulés ; les étages supérieurs accueillaient des expositions sur les cultures d'Afrique et d'Océanie, ainsi que des sections plus petites sur l'Égypte ancienne et l'Amérique précolombienne. Une zone consacrée à la nature de l'Océanie et une exposition spéciale sur l'ethnologie du Japon complètent la section ethnologique. Ce concept d'exposition a été réaménagé et modernisé après le décès de Mme Riemer, mais il a été conservé pour l'essentiel jusqu'en 2011.
-Le directeur officiel du musée était, depuis 1990 et jusqu'à sa retraite en 2001, l'ethnologue Klaus Glöckner (décédé en 2018), qui a occupé différentes fonctions au musée depuis 1980. Durant cette période, il a organisé ou fait venir de nombreuses expositions temporaires au musée. Klaus Glöckner était particulièrement connu dans la région pour son intense travail d'éducation aux sciences naturelles[3].
+Le directeur officiel du musée était, depuis 1990 et jusqu'à sa retraite en 2001, l'ethnologue Klaus Glöckner (décédé en 2018), qui a occupé différentes fonctions au musée depuis 1980. Durant cette période, il a organisé ou fait venir de nombreuses expositions temporaires au musée. Klaus Glöckner était particulièrement connu dans la région pour son intense travail d'éducation aux sciences naturelles.
 À la mort de la veuve de Julius Riemer en 2002, la collection a été transmise à la ville de Wittenberg par un contrat d'héritage. La collection est ainsi devenue partie intégrante des collections de la ville, sous la direction d'Andreas Wurda.
-Entreposage de l'exposition et plans pour une nouvelle conception
-Comme le château de Wittenberg a été entièrement rénové et réaménagé architecturalement à partir de 2011 en vue de l'année Luther 2017, l'exposition qui s'y trouvait avec des objets de la collection Julius Riemer a dû déménager et a été entreposée. Une collection plus importante d'objets ethnologiques, qui avait été conservée et exposée en prêt à Wittenberg, est retournée à son emplacement d'origine, le musée Mauretianum à Altenburg (Thuringe).
-Une nouvelle utilisation étant prévue pour le château, la recherche d'un nouvel emplacement pour la collection restante a commencé. La possibilité d'un stockage permanent de la collection a également été envisagée. Une initiative citoyenne, qui s'est transformée à partir de 2013 en association Freundeskreis Julius-Riemer-Sammlung e.V., s'est au contraire engagée pour une nouvelle conception de la collection. Pour atteindre cet objectif, elle a organisé de nombreuses manifestations en faveur de la conservation de la collection et de sa réception muséale et scientifique. Pour ce faire, l'association a reçu le soutien de scientifiques de toute l'Allemagne. Depuis 2013, le primatologue Carsten Niemitz est le patron de l'association. parraine le cercle des amis de la collection Riemer[4].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Julius_Riemer</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Julius_Riemer</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Musée d'histoire naturelle et d'ethnologie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Entreposage de l'exposition et plans pour une nouvelle conception</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Comme le château de Wittenberg a été entièrement rénové et réaménagé architecturalement à partir de 2011 en vue de l'année Luther 2017, l'exposition qui s'y trouvait avec des objets de la collection Julius Riemer a dû déménager et a été entreposée. Une collection plus importante d'objets ethnologiques, qui avait été conservée et exposée en prêt à Wittenberg, est retournée à son emplacement d'origine, le musée Mauretianum à Altenburg (Thuringe).
+Une nouvelle utilisation étant prévue pour le château, la recherche d'un nouvel emplacement pour la collection restante a commencé. La possibilité d'un stockage permanent de la collection a également été envisagée. Une initiative citoyenne, qui s'est transformée à partir de 2013 en association Freundeskreis Julius-Riemer-Sammlung e.V., s'est au contraire engagée pour une nouvelle conception de la collection. Pour atteindre cet objectif, elle a organisé de nombreuses manifestations en faveur de la conservation de la collection et de sa réception muséale et scientifique. Pour ce faire, l'association a reçu le soutien de scientifiques de toute l'Allemagne. Depuis 2013, le primatologue Carsten Niemitz est le patron de l'association. parraine le cercle des amis de la collection Riemer.
 Depuis 2014, la ville a présenté les premiers plans de réouverture de la collection Riemer dans le contexte du complexe muséal prévu sur la place de l'Arsenal.
 En mars 2015, le rez-de-chaussée a été ouvert dans le Musée des collections municipales de l'arsenal à Wittenberg : Dix-huit "joyaux de la couronne" de la ville y sont exposés sur trois cents mètres carrés, dont trois objets de la collection de Julius Riemer, en référence à l'exposition permanente d'histoire naturelle et d'ethnologie prévue dans le même bâtiment et comprenant des pièces de la collection Riemer.
-La nouvelle exposition permanente "Le monde de Riemer"
-Depuis le 21 décembre 2018, la collection dispose à nouveau d'une exposition permanente[5]. Au deuxième étage de l'arsenal, environ 1 500 pièces de la collection de Julius Riemer sont présentées sur environ 500 mètres carrés de surface d'exposition. On y présente principalement et à parts à peu près égales des objets d'histoire naturelle et d'ethnologie. En outre, une petite zone d'exposition est consacrée à la biographie de Julius Riemer en tant que collectionneur et mécène. L'exposition, intitulée "Le monde de Riemer", a le caractère d'un magasin de mousse. Des contenus scientifiques sont transmis par le biais de 15 objets phares de l'histoire naturelle et de l'ethnologie, afin de rendre le grand nombre de pièces exposées plus didactiques. Au centre de l'exposition se trouve une installation sous forme de carrousel qui met en relation de manière ludique des objets ethnologiques et des objets de sciences naturelles. Cette exposition des collections municipales de Wittenberg a été élaborée au cours de plusieurs années de préparation en coopération avec le cercle des amis de la collection Julius Riemer. Il s'agit de la seule exposition ethnologique permanente en Saxe-Anhalt qui présente des pièces de différents continents[6],[7].
-Expositions spéciales d'ethnologie
-En 2016, les collections municipales de Wittenberg, en coopération avec le cercle d'amis de la collection Julius Riemer, se sont à nouveau présentées au public avec une exposition spéciale d'ethnologie. Dans l'arsenal, l'exposition "Découverte de l'individu" des sculptures des Lobi d'Afrique de l'Ouest, qui provenaient de la collection de l'architecte berlinois Rainer Greschik. Par la suite, le collectionneur a remis une série d'objets à la ville. Ainsi, non seulement la tradition de donation d'objets ethnologiques initiée par Riemer s'est poursuivie, mais une ethnie qui n'était pas encore représentée dans la collection Riemer est venue enrichir les collections de la ville. L'exposition spéciale représentait délibérément un aperçu de l'exposition permanente prévue dans le même bâtiment.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Julius_Riemer</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Julius_Riemer</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Musée d'histoire naturelle et d'ethnologie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>La nouvelle exposition permanente "Le monde de Riemer"</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Depuis le 21 décembre 2018, la collection dispose à nouveau d'une exposition permanente. Au deuxième étage de l'arsenal, environ 1 500 pièces de la collection de Julius Riemer sont présentées sur environ 500 mètres carrés de surface d'exposition. On y présente principalement et à parts à peu près égales des objets d'histoire naturelle et d'ethnologie. En outre, une petite zone d'exposition est consacrée à la biographie de Julius Riemer en tant que collectionneur et mécène. L'exposition, intitulée "Le monde de Riemer", a le caractère d'un magasin de mousse. Des contenus scientifiques sont transmis par le biais de 15 objets phares de l'histoire naturelle et de l'ethnologie, afin de rendre le grand nombre de pièces exposées plus didactiques. Au centre de l'exposition se trouve une installation sous forme de carrousel qui met en relation de manière ludique des objets ethnologiques et des objets de sciences naturelles. Cette exposition des collections municipales de Wittenberg a été élaborée au cours de plusieurs années de préparation en coopération avec le cercle des amis de la collection Julius Riemer. Il s'agit de la seule exposition ethnologique permanente en Saxe-Anhalt qui présente des pièces de différents continents,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Julius_Riemer</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Julius_Riemer</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Musée d'histoire naturelle et d'ethnologie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Expositions spéciales d'ethnologie</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2016, les collections municipales de Wittenberg, en coopération avec le cercle d'amis de la collection Julius Riemer, se sont à nouveau présentées au public avec une exposition spéciale d'ethnologie. Dans l'arsenal, l'exposition "Découverte de l'individu" des sculptures des Lobi d'Afrique de l'Ouest, qui provenaient de la collection de l'architecte berlinois Rainer Greschik. Par la suite, le collectionneur a remis une série d'objets à la ville. Ainsi, non seulement la tradition de donation d'objets ethnologiques initiée par Riemer s'est poursuivie, mais une ethnie qui n'était pas encore représentée dans la collection Riemer est venue enrichir les collections de la ville. L'exposition spéciale représentait délibérément un aperçu de l'exposition permanente prévue dans le même bâtiment.
 Depuis décembre 2017, ce concept est poursuivi avec l'exposition spéciale comparative des cultures conçue pour la fin de l'année Luther "Objets de vénération - Témoignages matériels de la foi, de la révérence et de la commémoration dans les cultures de l'humanité".
 Des reliques, des votifs et d'autres objets de culte de six continents et de trois millénaires y sont présentés. Pour la première fois depuis 2012, des objets d'histoire naturelle et d'ethnologie de la collection Julius Riemer ont été exposés dans un contexte thématique. Comme la majeure partie de la collection Riemer n'était pas encore disponible en vue de la nouvelle présentation prévue en 2018, cette exposition s'appuie essentiellement sur des prêts. La référence explicite à l'ancien sanctuaire de Wittenberg et la présentation pointue d'objets sélectionnés de la collection Riemer et des collections sur l'histoire de la ville ont permis de renforcer l'unité muséale de toutes les collections municipales dans l'arsenal, objectif visé pour la future exposition permanente. Pour les deux expositions temporaires, l'ethnologue Nils Seethaler a pu être engagé comme conseiller scientifique. Il a également négocié les prêts externes et organisé leur transfert à Wittenberg.
 </t>
